--- a/medicine/Enfance/Capucine_Mazille/Capucine_Mazille.xlsx
+++ b/medicine/Enfance/Capucine_Mazille/Capucine_Mazille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capucine Mazille est une illustratrice d'origine néerlandaise née en 1953, demeurant à Saint-Eusèbe (Haute-Savoie).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteure d'album illustré (L'alphabet des monstres et Quatre saisons de la vie d'un ours, Les portes du monde, 2003 et 2005), Capucine Mazille a également illustré des contes de Jean-Pierre Spilmont (La vengeance d'Églantine Cornouille et Quand Pierrot cherchait Colombine, Les portes du monde, 2003), de Geoffrey Bush (Les gardiens de l'arbre à secrets  - La légende des écolins, Les portes du monde, 2005), d'E. Carli (La corneille à trois pattes, Les portes du monde, 2003). Son ouvrage le plus connu est celui qu'elle a illustré pour Claire Ubac : Le monstre aux mille fesses, aux Éditions de La Martinière, 2000.
 </t>
